--- a/Magic Bricks(Home Interiors).xlsx
+++ b/Magic Bricks(Home Interiors).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/shanam-nikitha_shanam-nikitha_capgemini_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D306E5C-45D5-4A72-8498-9C53394F3ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="510" documentId="8_{2D306E5C-45D5-4A72-8498-9C53394F3ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B92E85B9-29FD-439A-9167-FFC0545DAF9C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{9DB1CC36-F548-40BF-B4B1-E165E6EC84D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="3" xr2:uid="{9DB1CC36-F548-40BF-B4B1-E165E6EC84D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Userstory" sheetId="1" r:id="rId1"/>
@@ -41,16 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="188">
-  <si>
-    <t>Issue Type</t>
-  </si>
-  <si>
-    <t>Summary (Magic Bricks)</t>
-  </si>
-  <si>
-    <t>Epic 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="279">
   <si>
     <t>Home Interiors</t>
   </si>
@@ -58,87 +49,6 @@
     <t>High</t>
   </si>
   <si>
-    <t>Story1</t>
-  </si>
-  <si>
-    <t>SubStory1</t>
-  </si>
-  <si>
-    <t>As a Buyer, I want to hover on Home interiors ,so that  I can see the Explore our services option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a Buyer, I want to click on Home interiors services in   Explore our services </t>
-  </si>
-  <si>
-    <t>Story2</t>
-  </si>
-  <si>
-    <t>Substory1</t>
-  </si>
-  <si>
-    <t>As a Buyer, I want to select the Hyderabad, so that I Check out the best Interior Designers</t>
-  </si>
-  <si>
-    <t>story3</t>
-  </si>
-  <si>
-    <t>I want to see that hyderabad is shown in the dropdown for filter by option.</t>
-  </si>
-  <si>
-    <t>Substory2</t>
-  </si>
-  <si>
-    <t>I want to select the budget from the budget dropdown.</t>
-  </si>
-  <si>
-    <t>Priorities</t>
-  </si>
-  <si>
-    <t>As a user, I want to view the 'Tailor-Made Interiors' section on the Hyderabad page so that 
-I can explore various interior styles like Economic, Premium, and Luxury.</t>
-  </si>
-  <si>
-    <t>Stroy4</t>
-  </si>
-  <si>
-    <t>SubStory3</t>
-  </si>
-  <si>
-    <t>As a user, I want to select economic and click on  'Get Estimate Now' , so that to navigate Select your BHK type page.</t>
-  </si>
-  <si>
-    <t>SubStory2</t>
-  </si>
-  <si>
-    <t>Story5</t>
-  </si>
-  <si>
-    <t>As a user, I want to select the BHK type on the Estimate page so that I can provide accurate home
- details for my interior design estimate.</t>
-  </si>
-  <si>
-    <t>As a user, I want to click dropdown option 3+BHK on the Estimate page.</t>
-  </si>
-  <si>
-    <t>As a user, I want to select between ‘Small’ (Below 1800 Sqft)  for 
-3+ BHK type.</t>
-  </si>
-  <si>
-    <t>As a user, I want to click on Next button, to nagivate to more details.</t>
-  </si>
-  <si>
-    <t>As a user , I want select options and click on continue.</t>
-  </si>
-  <si>
-    <t>Story7</t>
-  </si>
-  <si>
-    <t>Story6</t>
-  </si>
-  <si>
-    <t>As a user , I want to nagivate to the other webpage, so that I can I can view the our estimated cost</t>
-  </si>
-  <si>
     <t>TestScenarioID</t>
   </si>
   <si>
@@ -148,9 +58,6 @@
     <t>Test Scenario Description</t>
   </si>
   <si>
-    <t>Type of Testing</t>
-  </si>
-  <si>
     <t>Possible No.of Testcases</t>
   </si>
   <si>
@@ -161,12 +68,6 @@
   </si>
   <si>
     <t>Functional</t>
-  </si>
-  <si>
-    <t>REQ_MB_HomePage_01</t>
-  </si>
-  <si>
-    <t>To verify Magic Bricks homepage launch successfully</t>
   </si>
   <si>
     <t>ReQ_MB_HomeInteriors_01</t>
@@ -180,9 +81,6 @@
 3. To validate 'Home Interior Design Services' option navigates to Interiors page.</t>
   </si>
   <si>
-    <t>Ts_Home_interiors_01</t>
-  </si>
-  <si>
     <t>REQ_MB_HomeInteriors_02</t>
   </si>
   <si>
@@ -221,9 +119,6 @@
   </si>
   <si>
     <t>Actual Result Iteration 1</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
   <si>
     <t>Comments</t>
@@ -337,10 +232,6 @@
     <t>Hyderabad</t>
   </si>
   <si>
-    <t>1.Select Hyderabad city
-2.click on hyderabad</t>
-  </si>
-  <si>
     <t>Hyderabad Interiors page should be opens</t>
   </si>
   <si>
@@ -352,11 +243,6 @@
   </si>
   <si>
     <t>User on Hyderabad Interiors page</t>
-  </si>
-  <si>
-    <t>1. To validate Hyderabad city selection from the list.
-2. To validate that styles (Economic, Premium, Luxury) are visible and slect economic option.
-3.To validate click on  'Get Estimate Now' button.</t>
   </si>
   <si>
     <t>1.select the economic as the choice</t>
@@ -520,10 +406,6 @@
     <t xml:space="preserve">To verify navigation for continue </t>
   </si>
   <si>
-    <t>1.To validate to continue button
-2.To  validate to show the Estimated Cost for Home Interiors 3 + BHK details.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> To validate error message appears when clicking 'Continue
  without input.</t>
   </si>
@@ -584,30 +466,15 @@
     <t>TC_Home_interiors_12</t>
   </si>
   <si>
-    <t>TS_Home_interiors_13</t>
-  </si>
-  <si>
-    <t>Ts_Home_interiors_14</t>
-  </si>
-  <si>
     <t>TS_Home_interiors_05</t>
   </si>
   <si>
     <t>3 to 5 Lakhs</t>
   </si>
   <si>
-    <t>Defect ID</t>
-  </si>
-  <si>
     <t>Module Name</t>
   </si>
   <si>
-    <t>Defect Summary</t>
-  </si>
-  <si>
-    <t>Defect Priority</t>
-  </si>
-  <si>
     <t>Severity</t>
   </si>
   <si>
@@ -620,9 +487,6 @@
     <t>DF_MB_HI_01</t>
   </si>
   <si>
-    <t>BHK Selection Page</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -641,25 +505,469 @@
     <t>DF_MB_HI_03</t>
   </si>
   <si>
-    <t>Error message not displayed when selecting only 
-one area (Small/Large)</t>
-  </si>
-  <si>
-    <t>Error message not displayed when clicking Continue
- without selecting required fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Details for estimation page</t>
-  </si>
-  <si>
-    <t>Continue not enabled after valid BHK selection</t>
+    <t>BR_ID</t>
+  </si>
+  <si>
+    <t>TR_ID</t>
+  </si>
+  <si>
+    <t>TS_ID</t>
+  </si>
+  <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>DR_ID</t>
+  </si>
+  <si>
+    <t>BR_HomeInteriors_01</t>
+  </si>
+  <si>
+    <t>TC_Home_interiors_13</t>
+  </si>
+  <si>
+    <t>TC_Home_interiors_14</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>TS_Home_interiors_06</t>
+  </si>
+  <si>
+    <t>Ts_Home_interiors_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.To validate to continue button
+</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Total Cases</t>
+  </si>
+  <si>
+    <t>Total Passed</t>
+  </si>
+  <si>
+    <t>Total Failed</t>
+  </si>
+  <si>
+    <t>Total Executed</t>
+  </si>
+  <si>
+    <t>Pass Percentage</t>
+  </si>
+  <si>
+    <t>Fail Percentage</t>
+  </si>
+  <si>
+    <t>Complition Percentage</t>
+  </si>
+  <si>
+    <t>Magic Bricks</t>
+  </si>
+  <si>
+    <t>Home  Interiors</t>
+  </si>
+  <si>
+    <t>TEST EXECUTION SUMMARY</t>
+  </si>
+  <si>
+    <t>BR_HomeInteriors_02</t>
+  </si>
+  <si>
+    <t>BR_HomeInteriors_03</t>
+  </si>
+  <si>
+    <t>BR_HomeInteriors_04</t>
+  </si>
+  <si>
+    <t>BR_HomeInteriors_05</t>
+  </si>
+  <si>
+    <t>BR_HomeInteriors_06</t>
+  </si>
+  <si>
+    <t>TR_HomeInteriors_01</t>
+  </si>
+  <si>
+    <t>1.See Hyderabad city
+2.click on hyderabad</t>
+  </si>
+  <si>
+    <t>1. To validate Hyderabad city selection from the list.
+2.To validate the budget dropdown to slect budget.
+3. To validate that styles (Economic, Premium, Luxury) are visible and slect economic option.
+4.To validate click on  'Get Estimate Now' button.</t>
+  </si>
+  <si>
+    <t>To validate the budget dropdown to slect budget.</t>
+  </si>
+  <si>
+    <t>TC_Home_interiors__05</t>
+  </si>
+  <si>
+    <t>TS_Home_interiors_14</t>
+  </si>
+  <si>
+    <t>Ts_Home_interiors_15</t>
+  </si>
+  <si>
+    <t>User on  Hyderabad Interiors page</t>
+  </si>
+  <si>
+    <t>1.click on budget dropdown
+2.slect the 5-10 lakhs
+3.click on wrong symbol</t>
+  </si>
+  <si>
+    <t>5-10 lakhs</t>
+  </si>
+  <si>
+    <t>Dropdown should display and close</t>
+  </si>
+  <si>
+    <t>Dropdown displayed  and closed</t>
+  </si>
+  <si>
+    <t>TC_Home_interiors_15</t>
+  </si>
+  <si>
+    <t>TC_Home_interiors_9</t>
+  </si>
+  <si>
+    <t>TR_HomeInteriors_02</t>
+  </si>
+  <si>
+    <t>TR_HomeInteriors_03</t>
+  </si>
+  <si>
+    <t>TR_HomeInteriors_04</t>
+  </si>
+  <si>
+    <t>TR_HomeInteriors_05</t>
+  </si>
+  <si>
+    <t>TR_HomeInteriors_06</t>
+  </si>
+  <si>
+    <t>REQ_MB__Website_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify Magic bricks homepage loads </t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>User Story ID</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria</t>
+  </si>
+  <si>
+    <t>As a Buyer, I want to hover on Home interiors, so that I can see the Explore our services option</t>
+  </si>
+  <si>
+    <t>1. Navigate to the homepage.
+2. Hover over the 'Home Interiors' menu.
+3. Verify that the 'Explore our services' option appears.</t>
+  </si>
+  <si>
+    <t>As a Buyer, I want to click on Home interiors services in Explore our services</t>
+  </si>
+  <si>
+    <t>1. Hover over 'Home Interiors'.
+2. Click on 'Explore our services'.
+3. Verify that the Home Interiors services page opens.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the Home Interiors services page.
+2. Select 'Hyderabad' from the location dropdown.
+3. Verify that interior designers for Hyderabad are displayed.</t>
+  </si>
+  <si>
+    <t>I want to select the budget as 5-10 lakhs from the budget dropdown</t>
+  </si>
+  <si>
+    <t>1. Locate the budget dropdown.
+2. Select the range '5-10 lakhs'.
+3. Verify that the selection is applied.</t>
+  </si>
+  <si>
+    <t>1. Select 'Economic' option.
+2. Click on 'Get Estimate Now'.
+3. Verify that the Select your BHK page is displayed.</t>
+  </si>
+  <si>
+    <t>As a user, I want to click on Next button, to navigate to more details</t>
+  </si>
+  <si>
+    <t>1. Click on the 'Next' button.
+2. Verify that the page navigates to more details section.</t>
+  </si>
+  <si>
+    <t>1. Select the required options.
+2. Click on 'Continue'.
+3. Verify that the next page loads successfully.</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Test Type</t>
+  </si>
+  <si>
+    <t>UI_HI_1</t>
+  </si>
+  <si>
+    <t>UI_HI_2</t>
+  </si>
+  <si>
+    <t>UI_HI_3</t>
+  </si>
+  <si>
+    <t>As a Buyer, I want to select Hyderabad, so that I Check out the best Interior Designers</t>
+  </si>
+  <si>
+    <t>UI_HI_4</t>
+  </si>
+  <si>
+    <t>UI_HI_5</t>
+  </si>
+  <si>
+    <t>As a user, I want to view the Tailor-Made Interiors section on the Hyderabad page to explore interior styles</t>
+  </si>
+  <si>
+    <t>1. Navigate to the Hyderabad page.
+2. Scroll to the Tailor-Made Interiors section.
+3. Verify that Economic, Premium, and Luxury options are visible.</t>
+  </si>
+  <si>
+    <t>UI_HI_6</t>
+  </si>
+  <si>
+    <t>As a user, I want to select economic and click on ‘Get Estimate Now’, so that to navigate Select your BHK page</t>
+  </si>
+  <si>
+    <t>As a user, I want to select the BHK type on the Estimate page so that I can provide accurate home details</t>
+  </si>
+  <si>
+    <t>1. On the Estimate page, locate the BHK type dropdown.
+2. Select the appropriate BHK type.
+3. Verify that the selection updates the estimate.</t>
+  </si>
+  <si>
+    <t>As a user, I want to click dropdown option 3+BHK on the Estimate page</t>
+  </si>
+  <si>
+    <t>1. Locate the BHK dropdown.
+2. Select '3+BHK'.
+3. Verify that the selection is applied.</t>
+  </si>
+  <si>
+    <t>As a user, I want to select between ‘Small’ (Below 1800 Sqft) for 3+ BHK type</t>
+  </si>
+  <si>
+    <t>1. After selecting 3+BHK, choose 'Small (Below 1800 Sqft)'.
+2. Verify that the selection updates the estimate.</t>
+  </si>
+  <si>
+    <t>As a user, I want to select options and click on continue</t>
+  </si>
+  <si>
+    <t>As a user, I want to navigate to the other webpage, so that I can view our estimated cost</t>
+  </si>
+  <si>
+    <t>1. Complete all selections.
+2. Click to proceed to the cost estimation page.
+3. Verify that the estimated cost is displayed.</t>
+  </si>
+  <si>
+    <t>UI_HI_7</t>
+  </si>
+  <si>
+    <t>UI_HI_8</t>
+  </si>
+  <si>
+    <t>UI_HI_9</t>
+  </si>
+  <si>
+    <t>UI_HI_10</t>
+  </si>
+  <si>
+    <t>UI_HI_11</t>
+  </si>
+  <si>
+    <t>UI_HI_12</t>
+  </si>
+  <si>
+    <t>Ecpic_01  Magic Bricks_Home Interiors</t>
+  </si>
+  <si>
+    <t>“Explore our services” option remains visible after hovering on Home Interiors.</t>
+  </si>
+  <si>
+    <t>User stays on Home Interiors services page after clicking Explore services.</t>
+  </si>
+  <si>
+    <t>Hyderabad interior designers list remains displayed after selection.</t>
+  </si>
+  <si>
+    <t>Budget range (5–10 lakhs) remains applied and visible in dropdown.</t>
+  </si>
+  <si>
+    <t>Tailor-Made Interiors section continues to show Economic, Premium, Luxury options.</t>
+  </si>
+  <si>
+    <t>User remains on BHK selection page after clicking “Get Estimate Now”.</t>
+  </si>
+  <si>
+    <t>Selected BHK type persists in estimate details.</t>
+  </si>
+  <si>
+    <t>Dropdown continues to show 3+BHK selected.</t>
+  </si>
+  <si>
+    <t>Size selection (Small &lt;1800 Sqft) remains applied successfully.</t>
+  </si>
+  <si>
+    <t>User stays on additional details page after clicking Next.</t>
+  </si>
+  <si>
+    <t>Continue button leads to next step and selections persist.</t>
+  </si>
+  <si>
+    <t>Estimated cost page remains visible with correct details.</t>
+  </si>
+  <si>
+    <t>Error message remains displayed for invalid size selection.</t>
+  </si>
+  <si>
+    <t>User remains on next page after clicking Continue with valid selections.</t>
+  </si>
+  <si>
+    <t>Final estimated cost page loads and remains accessible.</t>
+  </si>
+  <si>
+    <t>DefectId</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Build Version</t>
+  </si>
+  <si>
+    <t>Steps to reproduce</t>
+  </si>
+  <si>
+    <t>Expected Behavior</t>
+  </si>
+  <si>
+    <t>Actual Behavior</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Reported On</t>
+  </si>
+  <si>
+    <t>Current Status</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Error message not displayed when selecting only one area 
+(Small/Large)</t>
+  </si>
+  <si>
+    <t>v1.0</t>
+  </si>
+  <si>
+    <t>1. Navigate to BHK Selection Page
+2. Select only Small or Large area
+3. Click Continue</t>
+  </si>
+  <si>
+    <t>System should display an error message prompting user 
+to select both areas or required fields.</t>
+  </si>
+  <si>
+    <t>No error message displayed; user can proceed incorrectly.</t>
+  </si>
+  <si>
+    <t>10-Nov-2025</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>1. Navigate to Details for Estimation Page
+2. Select valid BHK options
+3. Check Continue button</t>
+  </si>
+  <si>
+    <t>Continue button remains disabled even after valid selection.</t>
+  </si>
+  <si>
+    <t>Error message not displayed when clicking Continue without
+ required fields</t>
+  </si>
+  <si>
+    <t>1. Navigate to Details for Estimation Page
+2. Leave mandatory fields empty
+3. Click Continue</t>
+  </si>
+  <si>
+    <t>System should display error message indicating required
+ fields are missing.</t>
+  </si>
+  <si>
+    <t>When user selects only one area option, no error message is 
+shown.</t>
+  </si>
+  <si>
+    <t>After selecting valid BHK options, Continue button remains 
+disabled.</t>
+  </si>
+  <si>
+    <t>Clicking Continue without filling mandatory fields does
+ not show error message.</t>
+  </si>
+  <si>
+    <t>Continue button should be
+ enabled after valid selection.</t>
+  </si>
+  <si>
+    <t>Post condition</t>
+  </si>
+  <si>
+    <t>Continue not enabled after
+ valid BHK selection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,8 +998,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,8 +1025,44 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -728,13 +1085,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -753,21 +1119,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -777,6 +1174,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1105,167 +1507,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6088EC04-533E-45E6-98D5-8FC05FC7EA64}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="96" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A7" zoomScale="88" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.90625" customWidth="1"/>
-    <col min="2" max="2" width="79.08984375" customWidth="1"/>
-    <col min="3" max="3" width="29.90625" customWidth="1"/>
+    <col min="1" max="1" width="35.6328125" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="3" max="3" width="79.36328125" customWidth="1"/>
+    <col min="4" max="4" width="104.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="23"/>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="23"/>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>211</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="23"/>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>217</v>
+      </c>
+      <c r="C7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="23"/>
+      <c r="B8" t="s">
+        <v>228</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>219</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" t="s">
+        <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
+        <v>223</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="B11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="23"/>
+      <c r="B12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1275,663 +1694,787 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="72" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.26953125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="36.36328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="47.7265625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="28.7265625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="31.26953125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="36.36328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="47.7265625" style="6" customWidth="1"/>
     <col min="5" max="5" width="31.1796875" style="6" customWidth="1"/>
     <col min="6" max="6" width="65.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>31</v>
+      <c r="A1" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>37</v>
+      <c r="A2" s="23" t="s">
+        <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="A3" s="23"/>
       <c r="B3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="E3" s="4">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="23"/>
       <c r="B4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>38</v>
+        <v>153</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="6">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="23"/>
+      <c r="B5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="6">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="A6" s="23"/>
       <c r="B6" s="6" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="E6" s="6">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="A7" s="23"/>
       <c r="B7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>38</v>
+        <v>152</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="E7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E7FD7D-E1DB-4F35-A30C-3E619675AF14}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
     <col min="3" max="3" width="35.6328125" customWidth="1"/>
     <col min="4" max="4" width="55.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.90625" customWidth="1"/>
     <col min="6" max="6" width="52.36328125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="43.81640625" customWidth="1"/>
-    <col min="8" max="8" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" customWidth="1"/>
-    <col min="10" max="10" width="28.26953125" customWidth="1"/>
-    <col min="11" max="11" width="22.1796875" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" customWidth="1"/>
-    <col min="13" max="13" width="16.7265625" customWidth="1"/>
+    <col min="7" max="7" width="51.36328125" customWidth="1"/>
+    <col min="8" max="8" width="24.90625" customWidth="1"/>
+    <col min="9" max="9" width="86.81640625" customWidth="1"/>
+    <col min="10" max="10" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.08984375" customWidth="1"/>
+    <col min="12" max="12" width="28.26953125" customWidth="1"/>
+    <col min="13" max="13" width="22.1796875" customWidth="1"/>
+    <col min="14" max="14" width="13.1796875" customWidth="1"/>
+    <col min="15" max="15" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>237</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>238</v>
+      </c>
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D6" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>239</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="D8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="G8" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>241</v>
+      </c>
+      <c r="J8" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="K8" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>242</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="K9" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="E10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>243</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>244</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="E12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>245</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>246</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="14" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>247</v>
+      </c>
+      <c r="J14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>248</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>249</v>
+      </c>
+      <c r="J16" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="17" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" t="s">
-        <v>111</v>
-      </c>
-      <c r="I9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" t="s">
-        <v>143</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1944,125 +2487,202 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED68DAB9-D4F8-438F-A3C3-C012B84F6C82}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.81640625" customWidth="1"/>
     <col min="2" max="2" width="24.36328125" customWidth="1"/>
-    <col min="3" max="3" width="44.6328125" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
     <col min="4" max="4" width="23.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
     <col min="6" max="6" width="26.453125" customWidth="1"/>
-    <col min="7" max="7" width="29.26953125" customWidth="1"/>
+    <col min="7" max="7" width="52.81640625" customWidth="1"/>
+    <col min="10" max="10" width="35.90625" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+    <col min="12" max="12" width="36.26953125" customWidth="1"/>
+    <col min="13" max="13" width="34.54296875" customWidth="1"/>
+    <col min="14" max="14" width="28.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>177</v>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>186</v>
+        <v>273</v>
+      </c>
+      <c r="D2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" t="s">
+        <v>266</v>
+      </c>
+      <c r="L2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K3" t="s">
+        <v>266</v>
+      </c>
+      <c r="L3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>181</v>
+        <v>275</v>
+      </c>
+      <c r="D4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N4" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2072,33 +2692,424 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78BEE56-AF1A-4547-9EF1-9D9E157CBB49}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.08984375" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="29.90625" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A3:A5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D77194-7B50-4BC3-BC9D-45706ABE3EC2}">
-  <dimension ref="A2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="60" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="2" max="2" width="84.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.36328125" customWidth="1"/>
     <col min="3" max="3" width="31.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" customWidth="1"/>
+    <col min="5" max="5" width="25.7265625" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" customWidth="1"/>
+    <col min="7" max="7" width="24.7265625" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" customWidth="1"/>
+    <col min="9" max="9" width="26.26953125" customWidth="1"/>
+    <col min="10" max="10" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="1:9" ht="31" x14ac:dyDescent="0.7">
+      <c r="A1" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="6">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6">
+        <v>81.2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>18.7</v>
+      </c>
+      <c r="I3" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
